--- a/LR3/table_2_6.xlsx
+++ b/LR3/table_2_6.xlsx
@@ -8,12 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="holodays" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="holodays">Лист2!$C$3:$C$16</definedName>
+    <definedName name="holodays">holodays!$C$3:$C$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -514,7 +514,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44564</c:v>
+                  <c:v>44567</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44564</c:v>
@@ -540,6 +540,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2546-4CD9-8989-DF1069FF3EFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -683,6 +688,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2546-4CD9-8989-DF1069FF3EFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -713,7 +723,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>93</c:v>
@@ -739,6 +749,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2546-4CD9-8989-DF1069FF3EFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -885,6 +900,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2546-4CD9-8989-DF1069FF3EFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -941,6 +961,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2546-4CD9-8989-DF1069FF3EFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1084,6 +1109,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2546-4CD9-8989-DF1069FF3EFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1140,6 +1170,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2546-4CD9-8989-DF1069FF3EFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1283,6 +1318,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2546-4CD9-8989-DF1069FF3EFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2349,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,7 +2548,7 @@
         <v>44562</v>
       </c>
       <c r="D4" s="10">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="E4" s="28">
         <v>5</v>
@@ -2519,7 +2559,7 @@
       </c>
       <c r="G4" s="11">
         <f>H4-D4</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H4" s="25">
         <v>44656</v>
@@ -4019,7 +4059,7 @@
   <dimension ref="C3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
